--- a/국제가스및석유_환율조사/Data/Temp/LNG 가격 및 환율조사.xlsx
+++ b/국제가스및석유_환율조사/Data/Temp/LNG 가격 및 환율조사.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1020a\OneDrive\문서\DaouMessenger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1020a\OneDrive\문서\TIL2022\국제가스및석유_환율조사\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7858B44F-898D-40F9-8439-8EE53B850AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E38C10-11E0-4D46-AE61-7B382D98FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DAA7480-AD64-4AB3-8112-F91D54F19FE9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2021" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WTI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NBP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dubai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,6 +81,18 @@
   </si>
   <si>
     <t>NBP/10*US달러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brent-patronet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dubai-patronet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WTI-patronet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,19 +307,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -326,11 +323,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -665,355 +671,528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8226A5C4-3963-4E31-803A-07BD9EE659AD}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="4" width="11.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F3" t="s">
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="Q4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="A5" s="3">
+        <v>44659</v>
+      </c>
+      <c r="B5" s="4">
+        <v>96.25</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6.6230000000000002</v>
+      </c>
+      <c r="D5" s="4">
+        <v>200.31</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.3007</v>
+      </c>
+      <c r="F5" s="4">
+        <v>27.706</v>
+      </c>
+      <c r="G5" s="4">
+        <v>99.275999999999996</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.3244</v>
+      </c>
+      <c r="I5" s="4">
+        <v>38.533999999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <v>97.21</v>
+      </c>
+      <c r="K5" s="4">
+        <v>98.63</v>
+      </c>
+      <c r="L5" s="4">
+        <v>94.01</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="A6" s="5">
+        <v>44662</v>
+      </c>
+      <c r="B6" s="6">
+        <v>98.48</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6.6429999999999998</v>
+      </c>
+      <c r="D6" s="6">
+        <v>213.01</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.3007</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
+        <v>100.137</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I6" s="6">
+        <v>31.989000000000001</v>
+      </c>
+      <c r="J6" s="6">
+        <v>98.48</v>
+      </c>
+      <c r="K6" s="6">
+        <v>97.64</v>
+      </c>
+      <c r="L6" s="6">
+        <v>94.29</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="O8" s="2"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L23" s="3"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1025,6 +1204,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AEEA4DC846C2D243AF21674411EB4A8F" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4ce2078935a7534e9a1409506471d3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1632fa05-bd4c-47cd-abb7-5d00cb42d241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8ecd61e1601d9f2240027e275c85d61b" ns3:_="">
     <xsd:import namespace="1632fa05-bd4c-47cd-abb7-5d00cb42d241"/>
@@ -1156,22 +1350,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA554AB-D3E7-47A0-A8FC-D675582BE1ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1632fa05-bd4c-47cd-abb7-5d00cb42d241"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D3455E9-BA79-4033-BE3C-EED889296F4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACCB0C0C-46B6-41CF-9EF7-BD9B5B757FEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1187,28 +1390,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D3455E9-BA79-4033-BE3C-EED889296F4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA554AB-D3E7-47A0-A8FC-D675582BE1ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1632fa05-bd4c-47cd-abb7-5d00cb42d241"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>